--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal stricture_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal stricture_gen_overall.xlsx
@@ -472,12 +472,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of heartburn or acid reflux symptoms</t>
+          <t>Normal appetite</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The lack of heartburn or acid reflux symptoms may suggest that esophageal stricture is less likely, as these conditions often coexist.</t>
+          <t>A normal appetite suggests that the patient is able to eat without difficulty, which is inconsistent with the presence of esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -489,83 +489,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Odynophagia often accompanies esophageal stricture due to inflammation or irritation of the esophageal lining, indicating a structural issue.</t>
+          <t>Odynophagia often accompanies esophageal stricture due to inflammation or irritation of the esophageal lining, indicating a structural problem.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal appetite without weight loss</t>
+          <t>No history of heartburn or acid reflux</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal appetite and stable weight suggest that there are no significant swallowing difficulties, making esophageal stricture less likely.</t>
+          <t>The absence of heartburn or acid reflux history reduces the likelihood of esophageal stricture, as these conditions often contribute to its development.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Weight loss</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic GERD can lead to esophageal stricture due to repeated injury and scarring of the esophagus, making it a relevant risk factor.</t>
+          <t>Unintentional weight loss can occur in patients with esophageal stricture due to difficulty eating and swallowing, leading to reduced caloric intake.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of esophageal surgery or trauma</t>
+          <t>No significant weight loss</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lack of surgical history or trauma reduces the likelihood of structural changes in the esophagus, which are necessary for a diagnosis of stricture.</t>
+          <t>Maintaining weight indicates that the patient is likely able to eat and swallow normally, which contradicts the presence of an esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Weight loss due to eating difficulties</t>
+          <t>Regurgitation of food</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can occur in patients with esophageal stricture as they may avoid eating due to pain or difficulty swallowing.</t>
+          <t>Regurgitation can occur when food cannot pass through the narrowed esophagus, suggesting a mechanical obstruction.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of radiation therapy to the chest</t>
+          <t>No episodes of choking or aspiration</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Radiation therapy can lead to strictures; absence of this history makes esophageal stricture less likely.</t>
+          <t>The lack of choking or aspiration episodes suggests that the esophagus is functioning normally, making stricture less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Regurgitation of food</t>
+          <t>History of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regurgitation can occur when food cannot pass through a narrowed esophagus, indicating a potential stricture.</t>
+          <t>Chronic GERD can lead to esophageal stricture due to repeated injury and scarring of the esophagus, making it a relevant risk factor.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal swallowing function reported</t>
+          <t>Recent onset of symptoms</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>If the patient reports normal swallowing function, it strongly argues against the presence of an esophageal stricture.</t>
+          <t>If symptoms have only recently developed without a history of chronic issues, it may indicate a different cause rather than a structural problem like stricture.</t>
         </is>
       </c>
     </row>
@@ -618,39 +618,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERD is a common cause of esophageal stricture due to chronic inflammation and scarring.</t>
+          <t>GERD is a common cause of esophageal stricture due to chronic inflammation and scarring from acid exposure.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of esophageal symptoms such as dysphagia or odynophagia</t>
+          <t>No history of swallowing difficulties</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of these symptoms makes esophageal stricture less likely.</t>
+          <t>Absence of dysphagia suggests that there is likely no significant esophageal narrowing or stricture.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous history of esophageal surgery</t>
+          <t>Previous esophageal surgery</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surgical interventions on the esophagus can lead to scarring and strictures.</t>
+          <t>Surgical interventions on the esophagus can lead to scarring and strictures as a complication.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of significant weight loss</t>
+          <t>No history of weight loss</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Weight loss is often associated with esophageal strictures due to difficulty swallowing.</t>
+          <t>Significant weight loss often accompanies esophageal strictures due to difficulty eating; its absence suggests no stricture.</t>
         </is>
       </c>
     </row>
@@ -662,17 +662,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Radiation can cause fibrosis and strictures in the esophagus.</t>
+          <t>Radiation can cause fibrosis and strictures in the esophagus as a late effect of treatment.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of malignancy in the esophagus</t>
+          <t>No history of esophageal cancer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esophageal malignancies can lead to strictures; absence of malignancy reduces likelihood.</t>
+          <t>Esophageal cancer can lead to strictures, and a lack of this history reduces the likelihood of a stricture.</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Certain autoimmune conditions can lead to esophageal strictures; absence of these conditions is supportive.</t>
+          <t>Certain autoimmune conditions can lead to esophageal strictures; absence of these conditions suggests lower risk.</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ingesting caustic substances can lead to severe damage and strictures in the esophagus.</t>
+          <t>Ingestion of caustic substances can lead to severe damage and scarring of the esophagus, resulting in strictures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No previous episodes of esophageal bleeding</t>
+          <t>No current medications that affect esophageal motility</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bleeding can indicate severe esophageal pathology, including strictures; absence of this finding is supportive.</t>
+          <t>Medications that alter motility can contribute to stricture formation; absence of such medications suggests lower risk.</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smoking is associated with increased risk of esophageal cancer and strictures due to its damaging effects on the esophagus.</t>
+          <t>Smoking is associated with increased risk of esophageal cancer and strictures due to its carcinogenic effects.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of genetic predisposition decreases the risk of esophageal strictures.</t>
+          <t>Absence of familial predisposition decreases the risk of esophageal strictures.</t>
         </is>
       </c>
     </row>
@@ -840,24 +840,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engagement in healthy dietary habits</t>
+          <t>Active participation in a healthy diet</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A diet low in irritants and high in protective factors may reduce the risk of esophageal damage.</t>
+          <t>A healthy diet can reduce the risk of esophageal conditions, including strictures.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of caustic substance ingestion</t>
+          <t>History of caustic ingestion</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ingestion of caustic substances can lead to strictures due to chemical burns in the esophagus.</t>
+          <t>Ingesting caustic substances can lead to strictures due to chemical burns in the esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lack of exposure to caustic substances eliminates a significant risk factor for esophageal strictures.</t>
+          <t>Absence of caustic ingestion history indicates a lower risk for esophageal injury and subsequent stricture.</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with esophageal stricture due to narrowing of the esophagus, leading to difficulty in food passage.</t>
+          <t>Dysphagia is a common symptom in patients with esophageal stricture due to the narrowing of the esophagus, making it difficult for food to pass.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of abdominal tenderness suggests that there is no underlying gastrointestinal obstruction or inflammation, which may be present in esophageal stricture.</t>
+          <t>The absence of abdominal tenderness suggests that there is no underlying gastrointestinal obstruction or inflammation, which may argue against a stricture.</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regurgitation can occur when food cannot pass through the narrowed esophagus, indicating a potential stricture.</t>
+          <t>Regurgitation can occur when food is unable to pass through the narrowed esophagus, indicating a potential stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chest pain can be associated with esophageal stricture due to the effort required to swallow or the irritation of the esophagus.</t>
+          <t>Patients may experience chest pain due to the esophagus being unable to properly transport food, which can be associated with strictures.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of dehydration suggests that the patient is maintaining adequate fluid intake, which may be compromised in cases of esophageal stricture.</t>
+          <t>Absence of dehydration suggests that the patient is maintaining adequate fluid intake, which may be less likely in cases of significant esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Malnutrition may be evident in patients with esophageal stricture due to inadequate food intake resulting from swallowing difficulties.</t>
+          <t>Malnutrition can be a result of chronic swallowing difficulties associated with esophageal stricture, leading to inadequate nutrient intake.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal respiratory exam</t>
+          <t>Normal lung auscultation</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal respiratory exam indicates that there are no complications such as aspiration pneumonia, which can occur with esophageal stricture.</t>
+          <t>Normal lung sounds may indicate that there are no aspiration events or respiratory complications, which can be associated with severe esophageal strictures.</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This imaging test directly visualizes the esophagus and can reveal strictures, making it a strong indicator of esophageal stricture.</t>
+          <t>This imaging test can reveal strictures in the esophagus, which is a direct indicator of esophageal stricture.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direct visualization during an endoscopy can confirm the presence of a stricture, providing definitive evidence for the diagnosis.</t>
+          <t>Direct visualization during an endoscopy can confirm the presence of a stricture, providing strong evidence for the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative result on this test indicates that there is no significant narrowing or stricture in the esophagus.</t>
+          <t>A negative result indicates that there is no significant narrowing or obstruction in the esophagus.</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manometry can show abnormal motility patterns associated with strictures, supporting the diagnosis.</t>
+          <t>This test can indicate motility issues associated with strictures, supporting the diagnosis of esophageal stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1125,29 +1125,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>If the endoscopy shows no abnormalities, it strongly suggests that a stricture is not present.</t>
+          <t>If the endoscopy shows no abnormalities, it strongly suggests that an esophageal stricture is not present.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT scan revealing esophageal wall thickening</t>
+          <t>CT scan showing localized esophageal narrowing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A CT scan can show structural changes in the esophagus that are consistent with strictures.</t>
+          <t>A CT scan can help visualize structural abnormalities in the esophagus, including strictures.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No evidence of esophageal wall thickening on imaging</t>
+          <t>No evidence of inflammation or malignancy in biopsy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Imaging that shows no thickening indicates that there is likely no stricture present.</t>
+          <t>A biopsy showing no pathological changes can indicate that there is no stricture formation.</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Biopsy showing normal esophageal mucosa</t>
+          <t>Normal CT scan of the chest</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal histological findings suggest that there is no underlying pathology leading to stricture formation.</t>
+          <t>A normal CT scan would not show any structural abnormalities, making esophageal stricture unlikely.</t>
         </is>
       </c>
     </row>

--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal stricture_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Esophageal stricture_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Progressive dysphagia, initially to solids and later to liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with esophageal stricture, as the narrowing of the esophagus makes it difficult for food to pass.</t>
+          <t>Progressive dysphagia is a classic symptom of esophageal stricture, as the narrowing of the esophagus typically worsens over time, first affecting the passage of solid foods and eventually liquids.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal appetite</t>
+          <t>Sudden onset of dysphagia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal appetite suggests that the patient is able to eat without difficulty, which is inconsistent with the presence of esophageal stricture.</t>
+          <t>A sudden onset of dysphagia is less typical of esophageal stricture, which usually presents with a gradual progression of symptoms.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Odynophagia (painful swallowing)</t>
+          <t>History of gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Odynophagia often accompanies esophageal stricture due to inflammation or irritation of the esophageal lining, indicating a structural problem.</t>
+          <t>Chronic GERD can lead to esophageal stricture due to repeated acid exposure causing inflammation and scarring of the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of heartburn or acid reflux</t>
+          <t>Intermittent dysphagia with no progression</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of heartburn or acid reflux history reduces the likelihood of esophageal stricture, as these conditions often contribute to its development.</t>
+          <t>Intermittent dysphagia without progression is more suggestive of a motility disorder rather than a structural narrowing like a stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Weight loss</t>
+          <t>Odynophagia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can occur in patients with esophageal stricture due to difficulty eating and swallowing, leading to reduced caloric intake.</t>
+          <t>Painful swallowing, or odynophagia, can occur with esophageal strictures due to irritation and inflammation of the esophageal lining.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No significant weight loss</t>
+          <t>No history of GERD or esophageal injury</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maintaining weight indicates that the patient is likely able to eat and swallow normally, which contradicts the presence of an esophageal stricture.</t>
+          <t>The absence of GERD or esophageal injury reduces the likelihood of esophageal stricture, as these are common precursors.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Regurgitation of food</t>
+          <t>History of esophageal injury or surgery</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regurgitation can occur when food cannot pass through the narrowed esophagus, suggesting a mechanical obstruction.</t>
+          <t>Previous esophageal injury or surgery can lead to scar formation and stricture development.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No episodes of choking or aspiration</t>
+          <t>Normal barium swallow study in the past</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The lack of choking or aspiration episodes suggests that the esophagus is functioning normally, making stricture less likely.</t>
+          <t>A previously normal barium swallow study suggests that there was no significant narrowing of the esophagus at that time, making a current stricture less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Unintentional weight loss</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronic GERD can lead to esophageal stricture due to repeated injury and scarring of the esophagus, making it a relevant risk factor.</t>
+          <t>Weight loss can occur due to difficulty swallowing and reduced food intake, which is common in patients with esophageal strictures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recent onset of symptoms</t>
+          <t>Presence of heartburn without dysphagia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>If symptoms have only recently developed without a history of chronic issues, it may indicate a different cause rather than a structural problem like stricture.</t>
+          <t>Heartburn without dysphagia is more indicative of GERD without complications like stricture.</t>
         </is>
       </c>
     </row>
@@ -618,17 +618,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERD is a common cause of esophageal stricture due to chronic inflammation and scarring from acid exposure.</t>
+          <t>GERD is a common cause of esophageal stricture due to chronic acid exposure leading to inflammation and scarring.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of swallowing difficulties</t>
+          <t>No history of GERD or acid reflux symptoms</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of dysphagia suggests that there is likely no significant esophageal narrowing or stricture.</t>
+          <t>Absence of GERD or acid reflux symptoms reduces the likelihood of esophageal stricture due to lack of chronic acid exposure.</t>
         </is>
       </c>
     </row>
@@ -640,17 +640,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surgical interventions on the esophagus can lead to scarring and strictures as a complication.</t>
+          <t>Surgical interventions on the esophagus can lead to scar formation and subsequent stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of weight loss</t>
+          <t>No history of esophageal surgery or interventions</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Significant weight loss often accompanies esophageal strictures due to difficulty eating; its absence suggests no stricture.</t>
+          <t>Without prior esophageal surgery, the risk of stricture due to surgical scarring is lower.</t>
         </is>
       </c>
     </row>
@@ -662,39 +662,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Radiation can cause fibrosis and strictures in the esophagus as a late effect of treatment.</t>
+          <t>Radiation can cause damage to the esophageal tissue, leading to fibrosis and stricture formation.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No history of esophageal cancer</t>
+          <t>No history of radiation therapy</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Esophageal cancer can lead to strictures, and a lack of this history reduces the likelihood of a stricture.</t>
+          <t>Absence of radiation therapy to the chest reduces the risk of radiation-induced esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chronic use of nonsteroidal anti-inflammatory drugs (NSAIDs)</t>
+          <t>Chronic use of NSAIDs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Long-term NSAID use can lead to esophageal injury and subsequent stricture formation.</t>
+          <t>Nonsteroidal anti-inflammatory drugs can cause esophageal irritation and contribute to stricture formation.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of autoimmune diseases</t>
+          <t>No chronic use of NSAIDs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Certain autoimmune conditions can lead to esophageal strictures; absence of these conditions suggests lower risk.</t>
+          <t>Without chronic NSAID use, the risk of esophageal irritation and subsequent stricture is reduced.</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ingestion of caustic substances can lead to severe damage and scarring of the esophagus, resulting in strictures.</t>
+          <t>Ingestion of caustic substances can cause severe esophageal injury and scarring, leading to strictures.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No current medications that affect esophageal motility</t>
+          <t>No history of caustic ingestion</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Medications that alter motility can contribute to stricture formation; absence of such medications suggests lower risk.</t>
+          <t>Without a history of caustic ingestion, the likelihood of esophageal injury leading to stricture is lower.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GERD is a common precursor to esophageal stricture due to chronic inflammation and scarring.</t>
+          <t>Smoking is a risk factor for gastroesophageal reflux disease (GERD), which can lead to esophageal stricture.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of chronic reflux symptoms</t>
+          <t>No history of smoking</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of chronic reflux symptoms suggests a lower likelihood of esophageal stricture.</t>
+          <t>Absence of smoking reduces the risk of GERD and esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Smoking history</t>
+          <t>Chronic alcohol use</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Smoking is associated with increased risk of esophageal cancer and strictures due to its carcinogenic effects.</t>
+          <t>Chronic alcohol use can contribute to GERD and esophageal damage, increasing the risk of stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of smoking or alcohol use</t>
+          <t>No alcohol consumption</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of these risk factors significantly reduces the likelihood of developing esophageal strictures.</t>
+          <t>Lack of alcohol consumption decreases the risk of esophageal damage and stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alcohol consumption</t>
+          <t>Family history of esophageal disorders</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic alcohol use can lead to esophageal damage and increase the risk of strictures.</t>
+          <t>A family history of esophageal disorders may suggest a genetic predisposition to conditions like esophageal stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No family history of esophageal diseases</t>
+          <t>No family history of esophageal disorders</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of familial predisposition decreases the risk of esophageal strictures.</t>
+          <t>Without a family history, the genetic predisposition to esophageal stricture is less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of esophageal disorders</t>
+          <t>Occupational exposure to irritants</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Genetic predisposition can play a role in the development of esophageal strictures.</t>
+          <t>Exposure to certain chemicals or irritants in the workplace can increase the risk of esophageal damage and subsequent stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Active participation in a healthy diet</t>
+          <t>Healthy dietary habits</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A healthy diet can reduce the risk of esophageal conditions, including strictures.</t>
+          <t>A diet that minimizes acid reflux reduces the risk of esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of caustic ingestion</t>
+          <t>Poor dietary habits</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ingesting caustic substances can lead to strictures due to chemical burns in the esophagus.</t>
+          <t>Dietary habits that promote acid reflux, such as high-fat diets, can increase the risk of developing esophageal stricture.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of caustic substance exposure</t>
+          <t>No occupational exposure to irritants</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of caustic ingestion history indicates a lower risk for esophageal injury and subsequent stricture.</t>
+          <t>Lack of exposure to workplace irritants decreases the likelihood of esophageal damage and stricture.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Dysphagia to solids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with esophageal stricture due to the narrowing of the esophagus, making it difficult for food to pass.</t>
+          <t>Dysphagia to solids is a common symptom of esophageal stricture due to narrowing of the esophagus, which impedes the passage of solid food.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal swallowing function</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal vital signs may indicate that the patient is not experiencing significant distress or complications typically associated with esophageal stricture.</t>
+          <t>Normal swallowing function suggests that there is no obstruction or narrowing in the esophagus, which argues against esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can occur in patients with esophageal stricture as they may avoid eating due to swallowing difficulties.</t>
+          <t>Weight loss can occur due to difficulty in swallowing and reduced food intake, which is often seen in patients with esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of abdominal tenderness</t>
+          <t>Absence of regurgitation</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of abdominal tenderness suggests that there is no underlying gastrointestinal obstruction or inflammation, which may argue against a stricture.</t>
+          <t>The absence of regurgitation indicates that food is passing through the esophagus without obstruction, which is unlikely in the presence of a stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Regurgitation of food</t>
+          <t>Regurgitation of undigested food</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regurgitation can occur when food is unable to pass through the narrowed esophagus, indicating a potential stricture.</t>
+          <t>Regurgitation of undigested food is indicative of esophageal obstruction, which is consistent with esophageal stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal oral examination</t>
+          <t>No weight loss</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal oral examination indicates that there are no visible lesions or abnormalities that could suggest an esophageal stricture.</t>
+          <t>Maintaining normal weight suggests adequate nutritional intake, which is less likely if a stricture is causing significant swallowing difficulties.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chest pain or discomfort</t>
+          <t>Halitosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients may experience chest pain due to the esophagus being unable to properly transport food, which can be associated with strictures.</t>
+          <t>Halitosis can result from food being trapped in the esophagus due to a stricture, leading to bacterial growth and odor.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of dehydration</t>
+          <t>No chest pain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of dehydration suggests that the patient is maintaining adequate fluid intake, which may be less likely in cases of significant esophageal stricture.</t>
+          <t>The absence of chest pain reduces the likelihood of esophageal irritation or spasms, which are often associated with strictures.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Signs of malnutrition</t>
+          <t>Chest pain</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Malnutrition can be a result of chronic swallowing difficulties associated with esophageal stricture, leading to inadequate nutrient intake.</t>
+          <t>Chest pain can occur due to esophageal spasms or irritation from food impaction in the narrowed esophagus.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal lung auscultation</t>
+          <t>Normal breath odor</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal lung sounds may indicate that there are no aspiration events or respiratory complications, which can be associated with severe esophageal strictures.</t>
+          <t>Normal breath odor suggests that there is no food retention in the esophagus, which would be expected if a stricture were present.</t>
         </is>
       </c>
     </row>
@@ -1066,44 +1066,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow study showing narrowing of the esophagus</t>
+          <t>Barium swallow showing narrowing of the esophagus</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This imaging test can reveal strictures in the esophagus, which is a direct indicator of esophageal stricture.</t>
+          <t>A barium swallow test that shows narrowing is highly specific for esophageal stricture, as it directly visualizes the structural change.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal esophageal motility on manometry</t>
+          <t>Normal barium swallow</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal motility suggests that there is no obstruction or stricture present in the esophagus.</t>
+          <t>A normal barium swallow is strong evidence against esophageal stricture as it would typically show narrowing if a stricture were present.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Endoscopic findings of a tight stricture</t>
+          <t>Endoscopy revealing a narrowed esophageal lumen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direct visualization during an endoscopy can confirm the presence of a stricture, providing strong evidence for the diagnosis.</t>
+          <t>Endoscopy can directly visualize the esophageal lumen, and a narrowed lumen is a definitive sign of esophageal stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative barium swallow study</t>
+          <t>Endoscopy showing normal esophageal lumen</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative result indicates that there is no significant narrowing or obstruction in the esophagus.</t>
+          <t>A normal endoscopic finding of the esophageal lumen suggests no structural narrowing, arguing against a stricture.</t>
         </is>
       </c>
     </row>
@@ -1115,61 +1115,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This test can indicate motility issues associated with strictures, supporting the diagnosis of esophageal stricture.</t>
+          <t>While not as specific as imaging, decreased peristalsis can indicate a functional issue secondary to a stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal endoscopic findings</t>
+          <t>Esophageal manometry showing normal peristalsis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>If the endoscopy shows no abnormalities, it strongly suggests that an esophageal stricture is not present.</t>
+          <t>Normal peristalsis on manometry suggests that there is no functional obstruction, which is unlikely if a stricture is present.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CT scan showing localized esophageal narrowing</t>
+          <t>CT scan showing esophageal narrowing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A CT scan can help visualize structural abnormalities in the esophagus, including strictures.</t>
+          <t>A CT scan can reveal structural changes in the esophagus, and narrowing is indicative of a stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No evidence of inflammation or malignancy in biopsy</t>
+          <t>CT scan showing normal esophageal structure</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A biopsy showing no pathological changes can indicate that there is no stricture formation.</t>
+          <t>A CT scan that shows no narrowing or structural changes in the esophagus argues against the presence of a stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Histological evidence of fibrosis in biopsy</t>
+          <t>Biopsy showing fibrosis in the esophageal wall</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biopsy results showing fibrosis can indicate chronic injury leading to stricture formation.</t>
+          <t>Fibrosis in the esophageal wall can be a result of chronic inflammation leading to stricture formation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal CT scan of the chest</t>
+          <t>Biopsy showing normal esophageal tissue</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A normal CT scan would not show any structural abnormalities, making esophageal stricture unlikely.</t>
+          <t>Normal biopsy results indicate no underlying pathological changes such as fibrosis, which would be expected in a stricture.</t>
         </is>
       </c>
     </row>
